--- a/SGP/SGP-ID-Bulletins.xlsx
+++ b/SGP/SGP-ID-Bulletins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>source_file_name</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Weekly Infectious Disease Bulletin EW 28.pdf</t>
   </si>
   <si>
+    <t>Weekly Infectious Disease Bulletin EW 29.pdf</t>
+  </si>
+  <si>
     <t>29 Dec 2024 - 4 Jan 2025</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
     <t>6 - 12 Jul 2025</t>
   </si>
   <si>
+    <t>13 - 19 Jul 2025</t>
+  </si>
+  <si>
     <t>4 Jan 2025</t>
   </si>
   <si>
@@ -293,6 +299,9 @@
   </si>
   <si>
     <t>12 Jul 2025</t>
+  </si>
+  <si>
+    <t>19 Jul 2025</t>
   </si>
 </sst>
 </file>
@@ -650,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -728,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>2714</v>
@@ -760,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>2866</v>
@@ -792,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>3045</v>
@@ -824,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>3392</v>
@@ -856,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>3381</v>
@@ -888,10 +897,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>3046</v>
@@ -920,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>2749</v>
@@ -952,10 +961,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>2617</v>
@@ -984,10 +993,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>2542</v>
@@ -1016,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>2431</v>
@@ -1048,10 +1057,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>2179</v>
@@ -1080,10 +1089,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>2424</v>
@@ -1112,10 +1121,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>2471</v>
@@ -1144,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <v>2632</v>
@@ -1176,10 +1185,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>2749</v>
@@ -1208,10 +1217,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F18">
         <v>2781</v>
@@ -1240,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>2906</v>
@@ -1272,10 +1281,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20">
         <v>2711</v>
@@ -1304,10 +1313,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F21">
         <v>2828</v>
@@ -1336,10 +1345,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <v>2856</v>
@@ -1368,10 +1377,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23">
         <v>2636</v>
@@ -1400,10 +1409,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24">
         <v>2338</v>
@@ -1432,10 +1441,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <v>2154</v>
@@ -1464,10 +1473,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F26">
         <v>1996</v>
@@ -1496,10 +1505,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1528,10 +1537,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>2147</v>
@@ -1560,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F29">
         <v>2148</v>
@@ -1579,6 +1588,38 @@
       </c>
       <c r="J29">
         <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30">
+        <v>2282</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>251</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SGP/SGP-ID-Bulletins.xlsx
+++ b/SGP/SGP-ID-Bulletins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>source_file_name</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Weekly Infectious Disease Bulletin EW 29.pdf</t>
   </si>
   <si>
+    <t>WIDB_EW30-2025.pdf</t>
+  </si>
+  <si>
     <t>29 Dec 2024 - 4 Jan 2025</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>13 - 19 Jul 2025</t>
   </si>
   <si>
+    <t>20 - 26 Jul 2025</t>
+  </si>
+  <si>
     <t>4 Jan 2025</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
   </si>
   <si>
     <t>19 Jul 2025</t>
+  </si>
+  <si>
+    <t>26 Jul 2025</t>
   </si>
 </sst>
 </file>
@@ -659,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -737,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2714</v>
@@ -769,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2866</v>
@@ -801,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>3045</v>
@@ -833,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>3392</v>
@@ -865,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>3381</v>
@@ -897,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>3046</v>
@@ -929,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>2749</v>
@@ -961,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>2617</v>
@@ -993,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>2542</v>
@@ -1025,10 +1034,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>2431</v>
@@ -1057,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>2179</v>
@@ -1089,10 +1098,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>2424</v>
@@ -1121,10 +1130,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>2471</v>
@@ -1153,10 +1162,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>2632</v>
@@ -1185,10 +1194,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>2749</v>
@@ -1217,10 +1226,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18">
         <v>2781</v>
@@ -1249,10 +1258,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <v>2906</v>
@@ -1281,10 +1290,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>2711</v>
@@ -1313,10 +1322,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21">
         <v>2828</v>
@@ -1345,10 +1354,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22">
         <v>2856</v>
@@ -1377,10 +1386,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>2636</v>
@@ -1409,10 +1418,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F24">
         <v>2338</v>
@@ -1441,10 +1450,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25">
         <v>2154</v>
@@ -1473,10 +1482,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>1996</v>
@@ -1505,10 +1514,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1537,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F28">
         <v>2147</v>
@@ -1569,10 +1578,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29">
         <v>2148</v>
@@ -1601,10 +1610,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F30">
         <v>2282</v>
@@ -1620,6 +1629,38 @@
       </c>
       <c r="J30">
         <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31">
+        <v>2304</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>243</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/SGP/SGP-ID-Bulletins.xlsx
+++ b/SGP/SGP-ID-Bulletins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>source_file_name</t>
   </si>
@@ -133,6 +133,12 @@
     <t>WIDB_EW30-2025.pdf</t>
   </si>
   <si>
+    <t>Weekly Infectious Disease Bulletin EW 31.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW32.pdf</t>
+  </si>
+  <si>
     <t>29 Dec 2024 - 4 Jan 2025</t>
   </si>
   <si>
@@ -223,6 +229,12 @@
     <t>20 - 26 Jul 2025</t>
   </si>
   <si>
+    <t>27 Jul 2024 - 2 Aug 2025</t>
+  </si>
+  <si>
+    <t>3 - 9 Aug 2025</t>
+  </si>
+  <si>
     <t>4 Jan 2025</t>
   </si>
   <si>
@@ -311,6 +323,12 @@
   </si>
   <si>
     <t>26 Jul 2025</t>
+  </si>
+  <si>
+    <t>2 Aug 2025</t>
+  </si>
+  <si>
+    <t>9 Aug 2025</t>
   </si>
 </sst>
 </file>
@@ -668,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,10 +732,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -746,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>2714</v>
@@ -778,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>2866</v>
@@ -810,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>3045</v>
@@ -842,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>3392</v>
@@ -874,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>3381</v>
@@ -906,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>3046</v>
@@ -938,10 +956,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>2749</v>
@@ -970,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>2617</v>
@@ -1002,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>2542</v>
@@ -1034,10 +1052,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>2431</v>
@@ -1066,10 +1084,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>2179</v>
@@ -1098,10 +1116,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <v>2424</v>
@@ -1130,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>2471</v>
@@ -1162,10 +1180,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>2632</v>
@@ -1194,10 +1212,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>2749</v>
@@ -1226,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F18">
         <v>2781</v>
@@ -1258,10 +1276,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>2906</v>
@@ -1290,10 +1308,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>2711</v>
@@ -1322,10 +1340,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21">
         <v>2828</v>
@@ -1354,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>2856</v>
@@ -1386,10 +1404,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>2636</v>
@@ -1418,10 +1436,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>2338</v>
@@ -1450,10 +1468,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F25">
         <v>2154</v>
@@ -1482,10 +1500,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <v>1996</v>
@@ -1514,10 +1532,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1546,10 +1564,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>2147</v>
@@ -1578,10 +1596,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>2148</v>
@@ -1610,10 +1628,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <v>2282</v>
@@ -1642,10 +1660,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>2304</v>
@@ -1661,6 +1679,70 @@
       </c>
       <c r="J31">
         <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32">
+        <v>2298</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>284</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33">
+        <v>2274</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>276</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SGP/SGP-ID-Bulletins.xlsx
+++ b/SGP/SGP-ID-Bulletins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>source_file_name</t>
   </si>
@@ -139,6 +139,27 @@
     <t>Weekly Infectious Disease Bulletin EW32.pdf</t>
   </si>
   <si>
+    <t>Weekly Infectious Disease Bulletin EW 33.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 34.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 35.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 36.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 37.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 38.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 39.pdf</t>
+  </si>
+  <si>
     <t>29 Dec 2024 - 4 Jan 2025</t>
   </si>
   <si>
@@ -235,6 +256,27 @@
     <t>3 - 9 Aug 2025</t>
   </si>
   <si>
+    <t>10 - 16 Aug 2025</t>
+  </si>
+  <si>
+    <t>17 - 23 Aug 2025</t>
+  </si>
+  <si>
+    <t>24 - 30 Aug 2025</t>
+  </si>
+  <si>
+    <t>31 Aug 2024 - 6 Sep 2025</t>
+  </si>
+  <si>
+    <t>7 - 13 Sep 2025</t>
+  </si>
+  <si>
+    <t>14 - 20 Sep 2025</t>
+  </si>
+  <si>
+    <t>21 - 27 Sep 2025</t>
+  </si>
+  <si>
     <t>4 Jan 2025</t>
   </si>
   <si>
@@ -329,6 +371,27 @@
   </si>
   <si>
     <t>9 Aug 2025</t>
+  </si>
+  <si>
+    <t>16 Aug 2025</t>
+  </si>
+  <si>
+    <t>23 Aug 2025</t>
+  </si>
+  <si>
+    <t>30 Aug 2025</t>
+  </si>
+  <si>
+    <t>6 Sep 2025</t>
+  </si>
+  <si>
+    <t>13 Sep 2025</t>
+  </si>
+  <si>
+    <t>20 Sep 2025</t>
+  </si>
+  <si>
+    <t>27 Sep 2025</t>
   </si>
 </sst>
 </file>
@@ -686,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -764,10 +827,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>2714</v>
@@ -796,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>2866</v>
@@ -828,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>3045</v>
@@ -860,10 +923,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>3392</v>
@@ -892,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>3381</v>
@@ -924,10 +987,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>3046</v>
@@ -956,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F9">
         <v>2749</v>
@@ -988,10 +1051,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F10">
         <v>2617</v>
@@ -1020,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F11">
         <v>2542</v>
@@ -1052,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>2431</v>
@@ -1084,10 +1147,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>2179</v>
@@ -1116,10 +1179,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F14">
         <v>2424</v>
@@ -1148,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>2471</v>
@@ -1180,10 +1243,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>2632</v>
@@ -1212,10 +1275,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>2749</v>
@@ -1244,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>2781</v>
@@ -1276,10 +1339,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F19">
         <v>2906</v>
@@ -1308,10 +1371,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F20">
         <v>2711</v>
@@ -1340,10 +1403,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F21">
         <v>2828</v>
@@ -1372,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <v>2856</v>
@@ -1404,10 +1467,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F23">
         <v>2636</v>
@@ -1436,10 +1499,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F24">
         <v>2338</v>
@@ -1468,10 +1531,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F25">
         <v>2154</v>
@@ -1500,10 +1563,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>1996</v>
@@ -1532,10 +1595,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1564,10 +1627,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>2147</v>
@@ -1596,10 +1659,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F29">
         <v>2148</v>
@@ -1628,10 +1691,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F30">
         <v>2282</v>
@@ -1660,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>2304</v>
@@ -1692,10 +1755,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>2298</v>
@@ -1724,10 +1787,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F33">
         <v>2274</v>
@@ -1743,6 +1806,230 @@
       </c>
       <c r="J33">
         <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <v>2353</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>289</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35">
+        <v>2501</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>314</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36">
+        <v>2553</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>283</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37">
+        <v>2520</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>307</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38">
+        <v>2498</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>321</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39">
+        <v>2809</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>360</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40">
+        <v>2748</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>439</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SGP/SGP-ID-Bulletins.xlsx
+++ b/SGP/SGP-ID-Bulletins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>source_file_name</t>
   </si>
@@ -160,6 +160,24 @@
     <t>Weekly Infectious Disease Bulletin EW 39.pdf</t>
   </si>
   <si>
+    <t>Weekly Infectious Disease Bulletin EW 40.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 41.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 42.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 44.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 45.pdf</t>
+  </si>
+  <si>
+    <t>Weekly Infectious Disease Bulletin EW 46.pdf</t>
+  </si>
+  <si>
     <t>29 Dec 2024 - 4 Jan 2025</t>
   </si>
   <si>
@@ -277,6 +295,24 @@
     <t>21 - 27 Sep 2025</t>
   </si>
   <si>
+    <t>28 Sep 2024 - 4 Oct 2025</t>
+  </si>
+  <si>
+    <t>5 - 11 Oct 2025</t>
+  </si>
+  <si>
+    <t>12 - 18 Oct 2025</t>
+  </si>
+  <si>
+    <t>26 Oct 2025 - 1 Nov 2025</t>
+  </si>
+  <si>
+    <t>2 - 8 Nov 2025</t>
+  </si>
+  <si>
+    <t>9 - 15 Nov 2025</t>
+  </si>
+  <si>
     <t>4 Jan 2025</t>
   </si>
   <si>
@@ -392,6 +428,24 @@
   </si>
   <si>
     <t>27 Sep 2025</t>
+  </si>
+  <si>
+    <t>4 Oct 2025</t>
+  </si>
+  <si>
+    <t>11 Oct 2025</t>
+  </si>
+  <si>
+    <t>18 Oct 2025</t>
+  </si>
+  <si>
+    <t>1 Nov 2025</t>
+  </si>
+  <si>
+    <t>8 Nov 2025</t>
+  </si>
+  <si>
+    <t>15 Nov 2025</t>
   </si>
 </sst>
 </file>
@@ -749,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -827,10 +881,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>2714</v>
@@ -859,10 +913,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>2866</v>
@@ -891,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>3045</v>
@@ -923,10 +977,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>3392</v>
@@ -955,10 +1009,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F7">
         <v>3381</v>
@@ -987,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <v>3046</v>
@@ -1019,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>2749</v>
@@ -1051,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>2617</v>
@@ -1083,10 +1137,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F11">
         <v>2542</v>
@@ -1115,10 +1169,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F12">
         <v>2431</v>
@@ -1147,10 +1201,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>2179</v>
@@ -1179,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <v>2424</v>
@@ -1211,10 +1265,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>2471</v>
@@ -1243,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F16">
         <v>2632</v>
@@ -1275,10 +1329,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <v>2749</v>
@@ -1307,10 +1361,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>2781</v>
@@ -1339,10 +1393,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>2906</v>
@@ -1371,10 +1425,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>2711</v>
@@ -1403,10 +1457,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>2828</v>
@@ -1435,10 +1489,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>2856</v>
@@ -1467,10 +1521,10 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <v>2636</v>
@@ -1499,10 +1553,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F24">
         <v>2338</v>
@@ -1531,10 +1585,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <v>2154</v>
@@ -1563,10 +1617,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>1996</v>
@@ -1595,10 +1649,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1627,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>2147</v>
@@ -1659,10 +1713,10 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F29">
         <v>2148</v>
@@ -1691,10 +1745,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>2282</v>
@@ -1723,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F31">
         <v>2304</v>
@@ -1755,10 +1809,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F32">
         <v>2298</v>
@@ -1787,10 +1841,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F33">
         <v>2274</v>
@@ -1819,10 +1873,10 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F34">
         <v>2353</v>
@@ -1851,10 +1905,10 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F35">
         <v>2501</v>
@@ -1883,10 +1937,10 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F36">
         <v>2553</v>
@@ -1915,10 +1969,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F37">
         <v>2520</v>
@@ -1947,10 +2001,10 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>2498</v>
@@ -1979,10 +2033,10 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>2809</v>
@@ -2011,10 +2065,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F40">
         <v>2748</v>
@@ -2030,6 +2084,198 @@
       </c>
       <c r="J40">
         <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41">
+        <v>2646</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>366</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42">
+        <v>2715</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>381</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43">
+        <v>2776</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>374</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44">
+        <v>2592</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>302</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45">
+        <v>2487</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>316</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46">
+        <v>2445</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
